--- a/Overlaps/GO/GOCharts.xlsx
+++ b/Overlaps/GO/GOCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="460" windowWidth="22760" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="23060" windowHeight="13620" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NC Pathways" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="VR Pathways" sheetId="3" r:id="rId4"/>
     <sheet name="RDC Pathways" sheetId="5" r:id="rId5"/>
     <sheet name="RDR Pathways" sheetId="6" r:id="rId6"/>
+    <sheet name="OurVirus" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>Example Genes</t>
   </si>
@@ -710,13 +711,139 @@
   </si>
   <si>
     <t># of Genes</t>
+  </si>
+  <si>
+    <t>BeeBase ID</t>
+  </si>
+  <si>
+    <t>Gene Name</t>
+  </si>
+  <si>
+    <t>Known functions</t>
+  </si>
+  <si>
+    <t>GB41545</t>
+  </si>
+  <si>
+    <t>GB48755</t>
+  </si>
+  <si>
+    <t>GB50178</t>
+  </si>
+  <si>
+    <t>GB47407</t>
+  </si>
+  <si>
+    <t>GB42313</t>
+  </si>
+  <si>
+    <t>GB50955</t>
+  </si>
+  <si>
+    <t>GB50813</t>
+  </si>
+  <si>
+    <t>GB54503</t>
+  </si>
+  <si>
+    <t>GB53500</t>
+  </si>
+  <si>
+    <t>GB51305</t>
+  </si>
+  <si>
+    <t>MD-2-related lipid-recognition protein-like</t>
+  </si>
+  <si>
+    <t>UBA-like domain-containing protein 2</t>
+  </si>
+  <si>
+    <t>Cilia and flagella-associated protein 61-like</t>
+  </si>
+  <si>
+    <t>Histone H4</t>
+  </si>
+  <si>
+    <t>Leishmanolysin-like peptidase</t>
+  </si>
+  <si>
+    <t>Protein argonaute-2</t>
+  </si>
+  <si>
+    <t>Rho guanine nucleotide exchange factor 11</t>
+  </si>
+  <si>
+    <t>Thioredoxin domain-containing protein</t>
+  </si>
+  <si>
+    <t>Transcriptional regulator Myc-B</t>
+  </si>
+  <si>
+    <t>Tropomyosin-like</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Implicated in lipid recognition, particularly in the recognition of pathogen related products</t>
+  </si>
+  <si>
+    <t>www.ebi.ac.uk</t>
+  </si>
+  <si>
+    <t>Found in diverse proteins involved in ubiquitin/proteasome pathways</t>
+  </si>
+  <si>
+    <t>NCBI gene</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/gene/</t>
+  </si>
+  <si>
+    <t>Flybase</t>
+  </si>
+  <si>
+    <t>Related to protein involved in muscle contraction</t>
+  </si>
+  <si>
+    <t>Rutter DEG Group</t>
+  </si>
+  <si>
+    <t>Galbraith DEG Group</t>
+  </si>
+  <si>
+    <t>Includes components required for wild-type motility and stable assembly of motile cilia</t>
+  </si>
+  <si>
+    <t>Capable of affecting transcription, DNA repair, and DNA replication when post-transcriptionally modified</t>
+  </si>
+  <si>
+    <t>Encodes a protein involved in cell migration and invasion; implicated in mitotic progression in D. melanogaster</t>
+  </si>
+  <si>
+    <t>Interacts with small interfering RNAs to form RNA-induced silencing complexes, which target and cleave transcripts that are mostly from viruses and transposons</t>
+  </si>
+  <si>
+    <t>Implicated in regulation of apoptopic processes, cell growth, signal transduction, and transcription</t>
+  </si>
+  <si>
+    <t>Serves as a general protein disulphide oxidoreductase</t>
+  </si>
+  <si>
+    <t>Regulator gene that codes for a transcription factor</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,6 +920,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242729"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -830,11 +964,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -849,6 +986,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -918,6 +1058,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,45 +1351,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>11</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1248,30 +1400,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>2.4E-2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1279,116 +1431,116 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>0.15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>0.18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>0.21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>0.23</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>0.25</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>0.27</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1408,76 +1560,76 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>4</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>0.6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>0.7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>0.73</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1501,62 +1653,62 @@
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>0.3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1580,42 +1732,42 @@
   <cols>
     <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="53.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>4</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1628,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,216 +1789,216 @@
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:4" s="25" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="22">
         <v>15</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>0.03</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>0.24</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>0.26</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>8</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>9</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>0.3</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>0.32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>0.33</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:4" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="22">
         <v>5</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="23">
         <v>0.38</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>4</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>0.39</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>4</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>0.44</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <v>0.45</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1863,111 +2015,111 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>7</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="28">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:4" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="31">
         <v>7</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="32">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>9</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>0.12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="28">
         <v>9</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="29">
         <v>0.17</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="28">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>0.5</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1977,4 +2129,243 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Overlaps/GO/GOCharts.xlsx
+++ b/Overlaps/GO/GOCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="23060" windowHeight="13620" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="21340" windowHeight="14980" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NC Pathways" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="RDC Pathways" sheetId="5" r:id="rId5"/>
     <sheet name="RDR Pathways" sheetId="6" r:id="rId6"/>
     <sheet name="OurVirus" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>Example Genes</t>
   </si>
@@ -809,9 +810,6 @@
     <t>Related to protein involved in muscle contraction</t>
   </si>
   <si>
-    <t>Rutter DEG Group</t>
-  </si>
-  <si>
     <t>Galbraith DEG Group</t>
   </si>
   <si>
@@ -837,6 +835,48 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Our DEG Group</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t># of DEGs</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>V vs N</t>
+  </si>
+  <si>
+    <t>NC vs NR</t>
+  </si>
+  <si>
+    <t>VC vs VR</t>
+  </si>
+  <si>
+    <t>VC upregulated in VC vs VR overlaped with NC upregulated in NC vs NR</t>
+  </si>
+  <si>
+    <t>"Resistance" genes that are turned on by good diet only in infected bees</t>
+  </si>
+  <si>
+    <t>Genes that change expression due to diet effect in infected bees</t>
+  </si>
+  <si>
+    <t>Genes that change expression due to diet effect in uninfected bees</t>
+  </si>
+  <si>
+    <t>Genes that change expression due to virus effect regardless of diet status in bees</t>
+  </si>
+  <si>
+    <t>"Resilience" genes that are turned on by good diet regardless of virus infection status in bees</t>
+  </si>
+  <si>
+    <t>VC upregulated in VC vs VR but NC is not upregulated in NC vs NR</t>
   </si>
 </sst>
 </file>
@@ -964,14 +1004,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,9 +1023,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1052,6 +1086,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1059,17 +1096,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1359,37 +1409,37 @@
   <cols>
     <col min="1" max="1" width="31.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>11</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1400,30 +1450,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1431,116 +1481,116 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>0.15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>0.18</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>0.21</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0.23</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>0.25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.27</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1567,69 +1617,69 @@
   <cols>
     <col min="1" max="1" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>0.6</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>0.7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>0.73</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1653,62 +1703,62 @@
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>0.3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1732,42 +1782,42 @@
   <cols>
     <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="53.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>1.6E-2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1780,225 +1830,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="25" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:4" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>15</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>0.03</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>0.24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>10</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>0.26</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>8</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0.3</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>0.32</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.33</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>0.38</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0.39</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>0.44</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>0.45</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2022,104 +2070,104 @@
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="75.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>7</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:4" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>7</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>0.12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>9</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>0.17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>0.5</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2135,132 +2183,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D4" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="41" t="s">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D5" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E5" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="41" t="s">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D6" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2270,102 +2318,186 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="41" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="38" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E11" s="33" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="45">
+        <v>43</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="45">
+        <v>941</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="45">
+        <v>376</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="45">
+        <v>122</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="45">
+        <v>125</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>